--- a/config_3.9/rank_server.xlsx
+++ b/config_3.9/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="299">
   <si>
     <t>id|</t>
   </si>
@@ -1347,12 +1347,20 @@
     <t>2千福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>kh315_008_lhphb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,6 +1415,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1481,7 +1495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1580,6 +1594,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1858,11 +1878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3095,39 +3115,74 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33">
+    <row r="35" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
-      <c r="B35" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" s="34" t="s">
+      <c r="B35" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="26">
         <v>1614643200</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="26">
         <v>1615219199</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="26">
         <v>34</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="26">
         <v>34</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="26">
         <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="33">
+        <v>35</v>
+      </c>
+      <c r="B36" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="33">
+        <v>1615248000</v>
+      </c>
+      <c r="F36" s="33">
+        <v>1615823999</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="33">
+        <v>35</v>
+      </c>
+      <c r="K36" s="33">
+        <v>35</v>
+      </c>
+      <c r="L36" s="33">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3139,11 +3194,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4109,31 +4164,59 @@
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="36">
+      <c r="B69" s="5">
         <v>34</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D69" s="36">
+      <c r="D69" s="5">
         <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="36">
+      <c r="B70" s="5">
         <v>34</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D70" s="36">
+      <c r="D70" s="5">
         <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="36">
+        <v>70</v>
+      </c>
+      <c r="B71" s="36">
+        <v>35</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="36">
+        <v>71</v>
+      </c>
+      <c r="B72" s="36">
+        <v>35</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" s="36">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4148,7 +4231,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5116,16 +5199,16 @@
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="5">
         <v>38</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="5">
         <v>9</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5133,32 +5216,52 @@
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="5">
         <v>38</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="E58" s="36">
+      <c r="E58" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="5"/>
+      <c r="A59" s="36">
+        <v>58</v>
+      </c>
+      <c r="B59" s="36">
+        <v>39</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="36">
+        <v>9</v>
+      </c>
+      <c r="E59" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="5"/>
+      <c r="A60" s="36">
+        <v>59</v>
+      </c>
+      <c r="B60" s="36">
+        <v>39</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" s="36">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5267,11 +5370,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6068,26 +6171,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
-        <v>1</v>
-      </c>
-      <c r="C35" s="36">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
         <v>20</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="5">
         <v>100</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="5">
         <v>20</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="5">
         <v>180</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="36">
+        <v>20</v>
+      </c>
+      <c r="D36" s="36">
+        <v>100</v>
+      </c>
+      <c r="E36" s="36">
+        <v>20</v>
+      </c>
+      <c r="F36" s="36">
+        <v>180</v>
+      </c>
+      <c r="G36" s="36">
         <v>10</v>
       </c>
     </row>
@@ -6099,11 +6225,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6561,17 +6687,31 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="36">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="5">
         <v>36</v>
       </c>
-      <c r="C33" s="36">
-        <v>1</v>
-      </c>
-      <c r="D33" s="36">
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
         <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="36">
+        <v>33</v>
+      </c>
+      <c r="B34" s="36">
+        <v>37</v>
+      </c>
+      <c r="C34" s="36">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6583,11 +6723,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7024,11 +7164,22 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="26">
         <v>1615219199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="36">
+        <v>37</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="33">
+        <v>1615823999</v>
       </c>
     </row>
   </sheetData>
@@ -7039,11 +7190,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G207" sqref="G207"/>
+      <selection pane="bottomLeft" activeCell="H229" sqref="H229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11842,21 +11993,21 @@
       <c r="A214" s="5">
         <v>213</v>
       </c>
-      <c r="B214" s="36">
+      <c r="B214" s="5">
         <v>32</v>
       </c>
-      <c r="C214" s="36">
-        <v>1</v>
-      </c>
-      <c r="D214" s="36">
-        <v>1</v>
-      </c>
-      <c r="E214" s="36"/>
-      <c r="F214" s="36"/>
-      <c r="G214" s="36">
+      <c r="C214" s="5">
+        <v>1</v>
+      </c>
+      <c r="D214" s="5">
+        <v>1</v>
+      </c>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5">
         <v>198</v>
       </c>
-      <c r="H214" s="37" t="s">
+      <c r="H214" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11864,21 +12015,21 @@
       <c r="A215" s="5">
         <v>214</v>
       </c>
-      <c r="B215" s="36">
+      <c r="B215" s="5">
         <v>32</v>
       </c>
-      <c r="C215" s="36">
+      <c r="C215" s="5">
         <v>2</v>
       </c>
-      <c r="D215" s="36">
+      <c r="D215" s="5">
         <v>2</v>
       </c>
-      <c r="E215" s="36"/>
-      <c r="F215" s="36"/>
-      <c r="G215" s="36">
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5">
         <v>199</v>
       </c>
-      <c r="H215" s="37" t="s">
+      <c r="H215" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11886,21 +12037,21 @@
       <c r="A216" s="5">
         <v>215</v>
       </c>
-      <c r="B216" s="36">
+      <c r="B216" s="5">
         <v>32</v>
       </c>
-      <c r="C216" s="36">
+      <c r="C216" s="5">
         <v>3</v>
       </c>
-      <c r="D216" s="36">
+      <c r="D216" s="5">
         <v>3</v>
       </c>
-      <c r="E216" s="36"/>
-      <c r="F216" s="36"/>
-      <c r="G216" s="36">
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5">
         <v>200</v>
       </c>
-      <c r="H216" s="37" t="s">
+      <c r="H216" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11908,21 +12059,21 @@
       <c r="A217" s="5">
         <v>216</v>
       </c>
-      <c r="B217" s="36">
+      <c r="B217" s="5">
         <v>32</v>
       </c>
-      <c r="C217" s="36">
+      <c r="C217" s="5">
         <v>4</v>
       </c>
-      <c r="D217" s="36">
+      <c r="D217" s="5">
         <v>6</v>
       </c>
-      <c r="E217" s="36"/>
-      <c r="F217" s="36"/>
-      <c r="G217" s="36">
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5">
         <v>201</v>
       </c>
-      <c r="H217" s="37" t="s">
+      <c r="H217" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11930,21 +12081,21 @@
       <c r="A218" s="5">
         <v>217</v>
       </c>
-      <c r="B218" s="36">
+      <c r="B218" s="5">
         <v>32</v>
       </c>
-      <c r="C218" s="36">
+      <c r="C218" s="5">
         <v>7</v>
       </c>
-      <c r="D218" s="36">
+      <c r="D218" s="5">
         <v>10</v>
       </c>
-      <c r="E218" s="36"/>
-      <c r="F218" s="36"/>
-      <c r="G218" s="36">
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5">
         <v>202</v>
       </c>
-      <c r="H218" s="37" t="s">
+      <c r="H218" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11952,21 +12103,21 @@
       <c r="A219" s="5">
         <v>218</v>
       </c>
-      <c r="B219" s="36">
+      <c r="B219" s="5">
         <v>32</v>
       </c>
-      <c r="C219" s="36">
+      <c r="C219" s="5">
         <v>11</v>
       </c>
-      <c r="D219" s="36">
+      <c r="D219" s="5">
         <v>15</v>
       </c>
-      <c r="E219" s="36"/>
-      <c r="F219" s="36"/>
-      <c r="G219" s="36">
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5">
         <v>203</v>
       </c>
-      <c r="H219" s="37" t="s">
+      <c r="H219" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11974,21 +12125,203 @@
       <c r="A220" s="5">
         <v>219</v>
       </c>
-      <c r="B220" s="36">
+      <c r="B220" s="5">
         <v>32</v>
       </c>
-      <c r="C220" s="36">
+      <c r="C220" s="5">
         <v>16</v>
       </c>
-      <c r="D220" s="36">
+      <c r="D220" s="5">
         <v>20</v>
       </c>
-      <c r="E220" s="36"/>
-      <c r="F220" s="36"/>
-      <c r="G220" s="36">
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5">
         <v>204</v>
       </c>
-      <c r="H220" s="37" t="s">
+      <c r="H220" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" s="36">
+        <v>220</v>
+      </c>
+      <c r="B221" s="36">
+        <v>33</v>
+      </c>
+      <c r="C221" s="36">
+        <v>1</v>
+      </c>
+      <c r="D221" s="36">
+        <v>1</v>
+      </c>
+      <c r="E221" s="36">
+        <v>1500000000</v>
+      </c>
+      <c r="F221" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G221" s="39">
+        <v>205212</v>
+      </c>
+      <c r="H221" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" s="36">
+        <v>221</v>
+      </c>
+      <c r="B222" s="36">
+        <v>33</v>
+      </c>
+      <c r="C222" s="36">
+        <v>2</v>
+      </c>
+      <c r="D222" s="36">
+        <v>2</v>
+      </c>
+      <c r="E222" s="36">
+        <v>900000000</v>
+      </c>
+      <c r="F222" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G222" s="39">
+        <v>206213</v>
+      </c>
+      <c r="H222" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" s="36">
+        <v>222</v>
+      </c>
+      <c r="B223" s="36">
+        <v>33</v>
+      </c>
+      <c r="C223" s="36">
+        <v>3</v>
+      </c>
+      <c r="D223" s="36">
+        <v>3</v>
+      </c>
+      <c r="E223" s="36">
+        <v>450000000</v>
+      </c>
+      <c r="F223" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G223" s="39">
+        <v>207214</v>
+      </c>
+      <c r="H223" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" s="36">
+        <v>223</v>
+      </c>
+      <c r="B224" s="36">
+        <v>33</v>
+      </c>
+      <c r="C224" s="36">
+        <v>4</v>
+      </c>
+      <c r="D224" s="36">
+        <v>6</v>
+      </c>
+      <c r="E224" s="36">
+        <v>220000000</v>
+      </c>
+      <c r="F224" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G224" s="39">
+        <v>208215</v>
+      </c>
+      <c r="H224" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="36">
+        <v>224</v>
+      </c>
+      <c r="B225" s="36">
+        <v>33</v>
+      </c>
+      <c r="C225" s="36">
+        <v>7</v>
+      </c>
+      <c r="D225" s="36">
+        <v>10</v>
+      </c>
+      <c r="E225" s="36">
+        <v>146000000</v>
+      </c>
+      <c r="F225" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G225" s="39">
+        <v>209216</v>
+      </c>
+      <c r="H225" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="36">
+        <v>225</v>
+      </c>
+      <c r="B226" s="36">
+        <v>33</v>
+      </c>
+      <c r="C226" s="36">
+        <v>11</v>
+      </c>
+      <c r="D226" s="36">
+        <v>15</v>
+      </c>
+      <c r="E226" s="36">
+        <v>88000000</v>
+      </c>
+      <c r="F226" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G226" s="39">
+        <v>210217</v>
+      </c>
+      <c r="H226" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="36">
+        <v>226</v>
+      </c>
+      <c r="B227" s="36">
+        <v>33</v>
+      </c>
+      <c r="C227" s="36">
+        <v>16</v>
+      </c>
+      <c r="D227" s="36">
+        <v>20</v>
+      </c>
+      <c r="E227" s="36">
+        <v>45000000</v>
+      </c>
+      <c r="F227" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G227" s="39">
+        <v>211218</v>
+      </c>
+      <c r="H227" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12001,11 +12334,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16047,19 +16380,19 @@
       <c r="A203" s="5">
         <v>202</v>
       </c>
-      <c r="B203" s="36">
+      <c r="B203" s="5">
         <v>198</v>
       </c>
-      <c r="C203" s="34" t="s">
+      <c r="C203" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D203" s="34" t="s">
+      <c r="D203" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E203" s="36">
+      <c r="E203" s="5">
         <v>100000</v>
       </c>
-      <c r="F203" s="36">
+      <c r="F203" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16067,19 +16400,19 @@
       <c r="A204" s="5">
         <v>203</v>
       </c>
-      <c r="B204" s="36">
+      <c r="B204" s="5">
         <v>199</v>
       </c>
-      <c r="C204" s="34" t="s">
+      <c r="C204" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D204" s="34" t="s">
+      <c r="D204" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E204" s="36">
+      <c r="E204" s="5">
         <v>30000</v>
       </c>
-      <c r="F204" s="36">
+      <c r="F204" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16087,19 +16420,19 @@
       <c r="A205" s="5">
         <v>204</v>
       </c>
-      <c r="B205" s="36">
+      <c r="B205" s="5">
         <v>200</v>
       </c>
-      <c r="C205" s="34" t="s">
+      <c r="C205" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D205" s="34" t="s">
+      <c r="D205" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E205" s="36">
+      <c r="E205" s="5">
         <v>10000</v>
       </c>
-      <c r="F205" s="36">
+      <c r="F205" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16107,19 +16440,19 @@
       <c r="A206" s="5">
         <v>205</v>
       </c>
-      <c r="B206" s="36">
+      <c r="B206" s="5">
         <v>201</v>
       </c>
-      <c r="C206" s="34" t="s">
+      <c r="C206" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="D206" s="34" t="s">
+      <c r="D206" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E206" s="36">
+      <c r="E206" s="5">
         <v>3000</v>
       </c>
-      <c r="F206" s="36">
+      <c r="F206" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16127,19 +16460,19 @@
       <c r="A207" s="5">
         <v>206</v>
       </c>
-      <c r="B207" s="36">
+      <c r="B207" s="5">
         <v>202</v>
       </c>
-      <c r="C207" s="34" t="s">
+      <c r="C207" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="D207" s="34" t="s">
+      <c r="D207" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E207" s="36">
+      <c r="E207" s="5">
         <v>2000</v>
       </c>
-      <c r="F207" s="36">
+      <c r="F207" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16147,19 +16480,19 @@
       <c r="A208" s="5">
         <v>207</v>
       </c>
-      <c r="B208" s="36">
+      <c r="B208" s="5">
         <v>203</v>
       </c>
-      <c r="C208" s="34" t="s">
+      <c r="C208" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D208" s="34" t="s">
+      <c r="D208" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E208" s="36">
+      <c r="E208" s="5">
         <v>1000</v>
       </c>
-      <c r="F208" s="36">
+      <c r="F208" s="5">
         <v>1</v>
       </c>
     </row>
@@ -16167,19 +16500,299 @@
       <c r="A209" s="5">
         <v>208</v>
       </c>
-      <c r="B209" s="36">
+      <c r="B209" s="5">
         <v>204</v>
       </c>
-      <c r="C209" s="34" t="s">
+      <c r="C209" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D209" s="34" t="s">
+      <c r="D209" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E209" s="36">
+      <c r="E209" s="5">
         <v>500</v>
       </c>
-      <c r="F209" s="36">
+      <c r="F209" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="36">
+        <v>209</v>
+      </c>
+      <c r="B210" s="36">
+        <v>205</v>
+      </c>
+      <c r="C210" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D210" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E210" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F210" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="36">
+        <v>210</v>
+      </c>
+      <c r="B211" s="36">
+        <v>206</v>
+      </c>
+      <c r="C211" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D211" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E211" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F211" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="36">
+        <v>211</v>
+      </c>
+      <c r="B212" s="36">
+        <v>207</v>
+      </c>
+      <c r="C212" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D212" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E212" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F212" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="36">
+        <v>212</v>
+      </c>
+      <c r="B213" s="36">
+        <v>208</v>
+      </c>
+      <c r="C213" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D213" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E213" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F213" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="36">
+        <v>213</v>
+      </c>
+      <c r="B214" s="36">
+        <v>209</v>
+      </c>
+      <c r="C214" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D214" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E214" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F214" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="36">
+        <v>214</v>
+      </c>
+      <c r="B215" s="36">
+        <v>210</v>
+      </c>
+      <c r="C215" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D215" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E215" s="36">
+        <v>500</v>
+      </c>
+      <c r="F215" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="36">
+        <v>215</v>
+      </c>
+      <c r="B216" s="36">
+        <v>211</v>
+      </c>
+      <c r="C216" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D216" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E216" s="36">
+        <v>240</v>
+      </c>
+      <c r="F216" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="36">
+        <v>216</v>
+      </c>
+      <c r="B217" s="36">
+        <v>212</v>
+      </c>
+      <c r="C217" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D217" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E217" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F217" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="36">
+        <v>217</v>
+      </c>
+      <c r="B218" s="36">
+        <v>213</v>
+      </c>
+      <c r="C218" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D218" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E218" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F218" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="36">
+        <v>218</v>
+      </c>
+      <c r="B219" s="36">
+        <v>214</v>
+      </c>
+      <c r="C219" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D219" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E219" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F219" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="36">
+        <v>219</v>
+      </c>
+      <c r="B220" s="36">
+        <v>215</v>
+      </c>
+      <c r="C220" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D220" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E220" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F220" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="36">
+        <v>220</v>
+      </c>
+      <c r="B221" s="36">
+        <v>216</v>
+      </c>
+      <c r="C221" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D221" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E221" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F221" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="36">
+        <v>221</v>
+      </c>
+      <c r="B222" s="36">
+        <v>217</v>
+      </c>
+      <c r="C222" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D222" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E222" s="36">
+        <v>500</v>
+      </c>
+      <c r="F222" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="36">
+        <v>222</v>
+      </c>
+      <c r="B223" s="36">
+        <v>218</v>
+      </c>
+      <c r="C223" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D223" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E223" s="36">
+        <v>240</v>
+      </c>
+      <c r="F223" s="36">
         <v>1</v>
       </c>
     </row>

--- a/config_3.9/rank_server.xlsx
+++ b/config_3.9/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="315">
   <si>
     <t>id|</t>
   </si>
@@ -1353,6 +1353,230 @@
   </si>
   <si>
     <t>礼盒排行榜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxlzb_005_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_award</t>
+  </si>
+  <si>
+    <r>
+      <t>205</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>206</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>213</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>207</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>214</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>208</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>215</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>209</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>216</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>217</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>211</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>218</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>219,226</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>220,227</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>221,228</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>222,229</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>223,230</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>224,231</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>225,232</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1495,7 +1719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1599,7 +1823,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1878,11 +2105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2975,7 +3202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
         <v>30</v>
       </c>
@@ -3183,6 +3410,41 @@
       </c>
       <c r="L36" s="33">
         <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="33">
+        <v>36</v>
+      </c>
+      <c r="B37" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E37" s="33">
+        <v>1615248000</v>
+      </c>
+      <c r="F37" s="33">
+        <v>1615823999</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="I37" s="33">
+        <v>36</v>
+      </c>
+      <c r="K37" s="33">
+        <v>36</v>
+      </c>
+      <c r="L37" s="33">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3194,11 +3456,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4219,6 +4481,62 @@
         <v>39</v>
       </c>
     </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="36">
+        <v>72</v>
+      </c>
+      <c r="B73" s="36">
+        <v>36</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="36">
+        <v>73</v>
+      </c>
+      <c r="B74" s="36">
+        <v>36</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="36">
+        <v>74</v>
+      </c>
+      <c r="B75" s="36">
+        <v>36</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="36">
+        <v>75</v>
+      </c>
+      <c r="B76" s="36">
+        <v>36</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="36">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4228,10 +4546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5261,6 +5579,40 @@
       </c>
       <c r="E60" s="36">
         <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="36">
+        <v>60</v>
+      </c>
+      <c r="B61" s="36">
+        <v>40</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="36">
+        <v>240000</v>
+      </c>
+      <c r="E61" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="36">
+        <v>61</v>
+      </c>
+      <c r="B62" s="36">
+        <v>40</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="36">
+        <v>5</v>
+      </c>
+      <c r="E62" s="36">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5370,11 +5722,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6217,6 +6569,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="37" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="36">
+        <v>36</v>
+      </c>
+      <c r="B37" s="36">
+        <v>1</v>
+      </c>
+      <c r="C37" s="36">
+        <v>20</v>
+      </c>
+      <c r="D37" s="36">
+        <v>100</v>
+      </c>
+      <c r="E37" s="36">
+        <v>20</v>
+      </c>
+      <c r="F37" s="36">
+        <v>180</v>
+      </c>
+      <c r="G37" s="36">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6225,11 +6600,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6714,6 +7089,20 @@
         <v>33</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="36">
+        <v>34</v>
+      </c>
+      <c r="B35" s="36">
+        <v>38</v>
+      </c>
+      <c r="C35" s="36">
+        <v>1</v>
+      </c>
+      <c r="D35" s="36">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6723,11 +7112,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7182,6 +7571,17 @@
         <v>1615823999</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="36">
+        <v>38</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="33">
+        <v>1615823999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7190,11 +7590,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H229" sqref="H229"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G232" sqref="G232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12162,8 +12562,8 @@
       <c r="F221" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G221" s="39">
-        <v>205212</v>
+      <c r="G221" s="40" t="s">
+        <v>301</v>
       </c>
       <c r="H221" s="37" t="s">
         <v>122</v>
@@ -12188,8 +12588,8 @@
       <c r="F222" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G222" s="39">
-        <v>206213</v>
+      <c r="G222" s="40" t="s">
+        <v>302</v>
       </c>
       <c r="H222" s="37" t="s">
         <v>122</v>
@@ -12214,8 +12614,8 @@
       <c r="F223" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G223" s="39">
-        <v>207214</v>
+      <c r="G223" s="40" t="s">
+        <v>303</v>
       </c>
       <c r="H223" s="37" t="s">
         <v>122</v>
@@ -12240,8 +12640,8 @@
       <c r="F224" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G224" s="39">
-        <v>208215</v>
+      <c r="G224" s="40" t="s">
+        <v>304</v>
       </c>
       <c r="H224" s="37" t="s">
         <v>122</v>
@@ -12266,8 +12666,8 @@
       <c r="F225" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G225" s="39">
-        <v>209216</v>
+      <c r="G225" s="40" t="s">
+        <v>305</v>
       </c>
       <c r="H225" s="37" t="s">
         <v>122</v>
@@ -12292,8 +12692,8 @@
       <c r="F226" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G226" s="39">
-        <v>210217</v>
+      <c r="G226" s="40" t="s">
+        <v>306</v>
       </c>
       <c r="H226" s="37" t="s">
         <v>122</v>
@@ -12318,10 +12718,192 @@
       <c r="F227" s="36">
         <v>99999999999</v>
       </c>
-      <c r="G227" s="39">
-        <v>211218</v>
+      <c r="G227" s="40" t="s">
+        <v>307</v>
       </c>
       <c r="H227" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="36">
+        <v>220</v>
+      </c>
+      <c r="B228" s="36">
+        <v>34</v>
+      </c>
+      <c r="C228" s="36">
+        <v>1</v>
+      </c>
+      <c r="D228" s="36">
+        <v>1</v>
+      </c>
+      <c r="E228" s="36">
+        <v>1500000000</v>
+      </c>
+      <c r="F228" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G228" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="H228" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="36">
+        <v>221</v>
+      </c>
+      <c r="B229" s="36">
+        <v>34</v>
+      </c>
+      <c r="C229" s="36">
+        <v>2</v>
+      </c>
+      <c r="D229" s="36">
+        <v>2</v>
+      </c>
+      <c r="E229" s="36">
+        <v>900000000</v>
+      </c>
+      <c r="F229" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G229" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="H229" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="36">
+        <v>222</v>
+      </c>
+      <c r="B230" s="36">
+        <v>34</v>
+      </c>
+      <c r="C230" s="36">
+        <v>3</v>
+      </c>
+      <c r="D230" s="36">
+        <v>3</v>
+      </c>
+      <c r="E230" s="36">
+        <v>450000000</v>
+      </c>
+      <c r="F230" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G230" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="H230" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="36">
+        <v>223</v>
+      </c>
+      <c r="B231" s="36">
+        <v>34</v>
+      </c>
+      <c r="C231" s="36">
+        <v>4</v>
+      </c>
+      <c r="D231" s="36">
+        <v>6</v>
+      </c>
+      <c r="E231" s="36">
+        <v>220000000</v>
+      </c>
+      <c r="F231" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G231" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="H231" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="36">
+        <v>224</v>
+      </c>
+      <c r="B232" s="36">
+        <v>34</v>
+      </c>
+      <c r="C232" s="36">
+        <v>7</v>
+      </c>
+      <c r="D232" s="36">
+        <v>10</v>
+      </c>
+      <c r="E232" s="36">
+        <v>146000000</v>
+      </c>
+      <c r="F232" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G232" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="H232" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="36">
+        <v>225</v>
+      </c>
+      <c r="B233" s="36">
+        <v>34</v>
+      </c>
+      <c r="C233" s="36">
+        <v>11</v>
+      </c>
+      <c r="D233" s="36">
+        <v>15</v>
+      </c>
+      <c r="E233" s="36">
+        <v>88000000</v>
+      </c>
+      <c r="F233" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G233" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="H233" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="36">
+        <v>226</v>
+      </c>
+      <c r="B234" s="36">
+        <v>34</v>
+      </c>
+      <c r="C234" s="36">
+        <v>16</v>
+      </c>
+      <c r="D234" s="36">
+        <v>20</v>
+      </c>
+      <c r="E234" s="36">
+        <v>45000000</v>
+      </c>
+      <c r="F234" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G234" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="H234" s="37" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12334,11 +12916,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I241" sqref="I241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16796,6 +17378,286 @@
         <v>1</v>
       </c>
     </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="36">
+        <v>223</v>
+      </c>
+      <c r="B224" s="36">
+        <v>219</v>
+      </c>
+      <c r="C224" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D224" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E224" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F224" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="36">
+        <v>224</v>
+      </c>
+      <c r="B225" s="36">
+        <v>220</v>
+      </c>
+      <c r="C225" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D225" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E225" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F225" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="36">
+        <v>225</v>
+      </c>
+      <c r="B226" s="36">
+        <v>221</v>
+      </c>
+      <c r="C226" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D226" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E226" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F226" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="36">
+        <v>226</v>
+      </c>
+      <c r="B227" s="36">
+        <v>222</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D227" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E227" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F227" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="36">
+        <v>227</v>
+      </c>
+      <c r="B228" s="36">
+        <v>223</v>
+      </c>
+      <c r="C228" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D228" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E228" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F228" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="36">
+        <v>228</v>
+      </c>
+      <c r="B229" s="36">
+        <v>224</v>
+      </c>
+      <c r="C229" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D229" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E229" s="36">
+        <v>500</v>
+      </c>
+      <c r="F229" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="36">
+        <v>229</v>
+      </c>
+      <c r="B230" s="36">
+        <v>225</v>
+      </c>
+      <c r="C230" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D230" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E230" s="36">
+        <v>240</v>
+      </c>
+      <c r="F230" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="36">
+        <v>230</v>
+      </c>
+      <c r="B231" s="36">
+        <v>226</v>
+      </c>
+      <c r="C231" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D231" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E231" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F231" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="36">
+        <v>231</v>
+      </c>
+      <c r="B232" s="36">
+        <v>227</v>
+      </c>
+      <c r="C232" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D232" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E232" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F232" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="36">
+        <v>232</v>
+      </c>
+      <c r="B233" s="36">
+        <v>228</v>
+      </c>
+      <c r="C233" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D233" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E233" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F233" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="36">
+        <v>233</v>
+      </c>
+      <c r="B234" s="36">
+        <v>229</v>
+      </c>
+      <c r="C234" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D234" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E234" s="36">
+        <v>1500</v>
+      </c>
+      <c r="F234" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="36">
+        <v>234</v>
+      </c>
+      <c r="B235" s="36">
+        <v>230</v>
+      </c>
+      <c r="C235" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D235" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E235" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F235" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="36">
+        <v>235</v>
+      </c>
+      <c r="B236" s="36">
+        <v>231</v>
+      </c>
+      <c r="C236" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D236" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E236" s="36">
+        <v>500</v>
+      </c>
+      <c r="F236" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="36">
+        <v>236</v>
+      </c>
+      <c r="B237" s="36">
+        <v>232</v>
+      </c>
+      <c r="C237" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D237" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E237" s="36">
+        <v>240</v>
+      </c>
+      <c r="F237" s="36">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_3.9/rank_server.xlsx
+++ b/config_3.9/rank_server.xlsx
@@ -2107,9 +2107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3460,7 +3460,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4549,7 +4549,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="A59" sqref="A59:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6604,7 +6604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7116,7 +7116,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7594,7 +7594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G232" sqref="G232"/>
+      <selection pane="bottomLeft" activeCell="A221" sqref="A221:A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="36">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B228" s="36">
         <v>34</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="36">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B229" s="36">
         <v>34</v>
@@ -12779,7 +12779,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="36">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B230" s="36">
         <v>34</v>
@@ -12805,7 +12805,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="36">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B231" s="36">
         <v>34</v>
@@ -12831,7 +12831,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="36">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B232" s="36">
         <v>34</v>
@@ -12857,7 +12857,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="36">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B233" s="36">
         <v>34</v>
@@ -12883,7 +12883,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="36">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B234" s="36">
         <v>34</v>
@@ -12920,7 +12920,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I241" sqref="I241"/>
+      <selection pane="bottomLeft" activeCell="A210" sqref="A210:A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_3.9/rank_server.xlsx
+++ b/config_3.9/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1382,6 +1382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1409,6 +1410,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1436,6 +1438,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1463,6 +1466,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1490,6 +1494,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1517,6 +1522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1544,6 +1550,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2109,7 +2116,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6602,7 +6609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
@@ -7592,9 +7599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A221" sqref="A221:A234"/>
+      <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12557,7 +12564,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="36">
-        <v>1500000000</v>
+        <v>3000000</v>
       </c>
       <c r="F221" s="36">
         <v>99999999999</v>
@@ -12583,7 +12590,7 @@
         <v>2</v>
       </c>
       <c r="E222" s="36">
-        <v>900000000</v>
+        <v>1800000</v>
       </c>
       <c r="F222" s="36">
         <v>99999999999</v>
@@ -12609,7 +12616,7 @@
         <v>3</v>
       </c>
       <c r="E223" s="36">
-        <v>450000000</v>
+        <v>900000</v>
       </c>
       <c r="F223" s="36">
         <v>99999999999</v>
@@ -12635,7 +12642,7 @@
         <v>6</v>
       </c>
       <c r="E224" s="36">
-        <v>220000000</v>
+        <v>450000</v>
       </c>
       <c r="F224" s="36">
         <v>99999999999</v>
@@ -12661,7 +12668,7 @@
         <v>10</v>
       </c>
       <c r="E225" s="36">
-        <v>146000000</v>
+        <v>300000</v>
       </c>
       <c r="F225" s="36">
         <v>99999999999</v>
@@ -12687,7 +12694,7 @@
         <v>15</v>
       </c>
       <c r="E226" s="36">
-        <v>88000000</v>
+        <v>180000</v>
       </c>
       <c r="F226" s="36">
         <v>99999999999</v>
@@ -12713,7 +12720,7 @@
         <v>20</v>
       </c>
       <c r="E227" s="36">
-        <v>45000000</v>
+        <v>90000</v>
       </c>
       <c r="F227" s="36">
         <v>99999999999</v>

--- a/config_3.9/rank_server.xlsx
+++ b/config_3.9/rank_server.xlsx
@@ -1882,7 +1882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3198,7 +3198,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4231,7 +4231,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5223,7 +5223,7 @@
         <v>245</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E58" s="5">
         <v>2</v>
@@ -5257,7 +5257,7 @@
         <v>245</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E60" s="36">
         <v>2</v>
